--- a/biology/Zoologie/Eugongylinae/Eugongylinae.xlsx
+++ b/biology/Zoologie/Eugongylinae/Eugongylinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Eugongylinae sont une sous-famille de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Eugongylinae sont une sous-famille de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent presque partout à l'exception des pôles et de l'Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent presque partout à l'exception des pôles et de l'Amérique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 décembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 décembre 2015) :
 Ablepharus Lichtenstein, 1823
 Afroablepharus Greer, 1974
 Anepischetosia Wells &amp; Wellington, 1985
@@ -619,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Welch, 1982 : Herpetology of the Old World 2. Preliminary comments on the classification of skinks (family Scincidae) with specific reference to those genera found in Africa, Europe and southwest Asia. Herptile, vol. 7, no 4, p. 25-27.</t>
         </is>
